--- a/public/guidance-report.xlsx
+++ b/public/guidance-report.xlsx
@@ -58,6 +58,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="dd\-mm\-yyyy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,8 +88,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -147,7 +151,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -182,7 +186,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,8 +450,12 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/guidance-report.xlsx
+++ b/public/guidance-report.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biahmed\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bilal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032A1077-4FE8-46A9-A0BD-76DA40B3D922}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" forceFullCalc="1"/>
+  <calcPr calcId="179021" forceFullCalc="1"/>
 </workbook>
 </file>
 
@@ -57,10 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd\-mm\-yyyy;@"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -88,9 +86,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -151,7 +148,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -186,7 +183,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,14 +391,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
@@ -415,7 +412,7 @@
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,13 +446,9 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/guidance-report.xlsx
+++ b/public/guidance-report.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bilal\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biahmed\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032A1077-4FE8-46A9-A0BD-76DA40B3D922}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021" forceFullCalc="1"/>
+  <calcPr calcId="152511" forceFullCalc="1"/>
 </workbook>
 </file>
 
@@ -58,12 +57,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="mm\-dd\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,8 +101,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -148,7 +181,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -183,7 +216,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,64 +424,249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="2"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="2"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="2"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="2"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="2"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="2"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="2"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="2"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="2"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="2"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="2"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="2"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="2"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="2"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="2"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="2"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="2"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="2"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="2"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="3"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>